--- a/biology/Médecine/Angiopathie/Angiopathie.xlsx
+++ b/biology/Médecine/Angiopathie/Angiopathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une angiopathie est toute affection concernant les vaisseaux sanguins : artères, veines et capillaires, voire vaisseaux lymphatiques. L'angiopathie la plus connue et la plus répandue est l'angiopathie diabétique, une complication fréquente du diabète chronique.
 Le terme est formé à partir du grec ancien άγγείον / angeïov, « vaisseau » et πάθος / pathos, « maladie ».
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On distingue deux types d'angiopathies :
 Les macroangiopathies qui sont des pathologies des gros vaisseaux, artères et veines. Ce type d'angiopathie est en général une conséquence de l'athérome ou athérosclérose.
-Les microangiopathies qui sont, par opposition, des pathologies des petits vaisseaux, artérioles, veinules et capillaires[1].</t>
+Les microangiopathies qui sont, par opposition, des pathologies des petits vaisseaux, artérioles, veinules et capillaires.</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Maladies associées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Angiopathie amyloïde
 Angiopathie diabétique
